--- a/LandVoc-concepts-fr.xlsx
+++ b/LandVoc-concepts-fr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts LandVoc hiérarchie" sheetId="3" r:id="rId1"/>
@@ -4633,18 +4633,6 @@
     <t/>
   </si>
   <si>
-    <t>Inglés</t>
-  </si>
-  <si>
-    <t>Español</t>
-  </si>
-  <si>
-    <t>Francés</t>
-  </si>
-  <si>
-    <t>Portugués</t>
-  </si>
-  <si>
     <t>LandVoc Concepts</t>
   </si>
   <si>
@@ -4668,6 +4656,18 @@
 Ce dictionnaire capture la richesse d'une grande variété de termes, car il inclut des traductions et des synonymes. Ces informations sont consolidées dans un identifiant unique (URI) pour chaque concept. Cela est extrêmement utile pour indexer les informations et récupérer le contenu par le biais de la navigation et de la recherche.
 Ce fichier contient tous les concepts actuellement inclus dans LandVoc et des traductions en quatre langues (anglais, français, espagnol et portugais). Ce fichier ne contient pas de synonymes ou de relations entre les différents concepts.
 Le contenu de LandVoc en anglais, français, espagnol et portugais est sous licence Creative Commons Attribution 3.0 IGO License (CC BY 3.0 IGO).</t>
+  </si>
+  <si>
+    <t>anglais</t>
+  </si>
+  <si>
+    <t>espagnol</t>
+  </si>
+  <si>
+    <t>français</t>
+  </si>
+  <si>
+    <t>portugais</t>
   </si>
 </sst>
 </file>
@@ -4998,6 +4998,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5005,9 +5008,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5557,8 +5557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F735"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.5" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5572,7 +5572,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -15076,9 +15076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15092,16 +15090,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1534</v>
+        <v>1541</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1535</v>
+        <v>1542</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1536</v>
+        <v>1543</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1537</v>
+        <v>1544</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1279</v>
@@ -25219,9 +25217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25232,7 +25228,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -25243,7 +25239,7 @@
     </row>
     <row r="3" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -25263,7 +25259,7 @@
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -25273,28 +25269,28 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="A6" s="23" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -25304,24 +25300,24 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="A9" s="21" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
